--- a/documentation/Logs/Backlog.xlsx
+++ b/documentation/Logs/Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stormfront/Desktop/GITHUB/CranewareQuiz/CranewareQuizzingTeam7/documentation/Logs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stormfront/Desktop/GITHUB/CranewareQuizzingTeam7/documentation/Logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2CFD5F-9D14-7F4B-B14E-10C27767962B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C46423F-72D1-4342-B53F-D98CFF961F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -203,6 +203,13 @@
     </font>
     <font>
       <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -304,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -325,6 +332,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,14 +556,14 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="87" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="90" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -594,7 +604,7 @@
       <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="21" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="1"/>
@@ -610,14 +620,14 @@
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="22" t="s">
         <v>30</v>
       </c>
     </row>
@@ -625,7 +635,7 @@
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="5"/>
@@ -640,7 +650,7 @@
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="5"/>
@@ -655,7 +665,7 @@
       <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="5"/>
@@ -670,7 +680,7 @@
       <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="5"/>
@@ -685,7 +695,7 @@
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="5"/>
@@ -700,7 +710,7 @@
       <c r="A11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="5"/>
